--- a/Lamia/DBASE/create/Base2_0_3.xlsx
+++ b/Lamia/DBASE/create/Base2_0_3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" firstSheet="8" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="767" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="18" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="577">
   <si>
     <t>#DJAN</t>
   </si>
@@ -1786,99 +1786,6 @@
   </si>
   <si>
     <t>rue_complement</t>
-  </si>
-  <si>
-    <t>CD41</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Avant 1900 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1900-1920 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1921-1940 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1941-1950 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1951-1960 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1961-1970 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1971-1980 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1981-1990 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1991-1995 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1996-2000 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2001-2005 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2006-2010 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2011-2015 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2016-2020 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Inconnue </t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>99</t>
   </si>
   <si>
     <t>intervenant_1</t>
@@ -4069,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -4456,10 +4363,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F25" s="17" t="s">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="G25" s="17" t="s">
-        <v>607</v>
+        <v>576</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -8977,8 +8884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8994,7 +8901,7 @@
     <col min="10" max="1025" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9003,7 +8910,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9012,7 +8919,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>136</v>
       </c>
@@ -9021,7 +8928,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>137</v>
       </c>
@@ -9030,7 +8937,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>567</v>
       </c>
@@ -9038,11 +8945,8 @@
       <c r="F5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="14" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -9068,7 +8972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>57</v>
       </c>
@@ -9079,7 +8983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -9090,7 +8994,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -9104,7 +9008,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -9112,7 +9016,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -9120,7 +9024,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -9131,7 +9035,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>66</v>
       </c>
@@ -9139,7 +9043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>67</v>
       </c>
@@ -9147,7 +9051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>68</v>
       </c>
@@ -9259,12 +9163,7 @@
       <c r="F28" t="s">
         <v>65</v>
       </c>
-      <c r="I28" s="14" t="s">
-        <v>574</v>
-      </c>
-      <c r="J28" s="15" t="s">
-        <v>589</v>
-      </c>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
@@ -9273,12 +9172,7 @@
       <c r="G29" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="14" t="s">
-        <v>575</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>590</v>
-      </c>
+      <c r="J29" s="15"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
@@ -9287,12 +9181,7 @@
       <c r="G30" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="14" t="s">
-        <v>576</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>591</v>
-      </c>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
@@ -9301,12 +9190,7 @@
       <c r="G31" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="14" t="s">
-        <v>577</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>592</v>
-      </c>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
@@ -9315,92 +9199,37 @@
       <c r="G32" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>578</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>593</v>
-      </c>
+      <c r="J32" s="15"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I33" s="14" t="s">
-        <v>579</v>
-      </c>
-      <c r="J33" s="15" t="s">
-        <v>594</v>
-      </c>
+      <c r="J33" s="15"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I34" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="J34" s="15" t="s">
-        <v>595</v>
-      </c>
+      <c r="J34" s="15"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I35" s="14" t="s">
-        <v>581</v>
-      </c>
-      <c r="J35" s="15" t="s">
-        <v>596</v>
-      </c>
+      <c r="J35" s="15"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I36" s="14" t="s">
-        <v>582</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>597</v>
-      </c>
+      <c r="J36" s="15"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I37" s="14" t="s">
-        <v>583</v>
-      </c>
-      <c r="J37" s="15" t="s">
-        <v>598</v>
-      </c>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I38" s="14" t="s">
-        <v>584</v>
-      </c>
-      <c r="J38" s="15" t="s">
-        <v>599</v>
-      </c>
+      <c r="J38" s="15"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I39" s="14" t="s">
-        <v>585</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>600</v>
-      </c>
+      <c r="J39" s="15"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I40" s="14" t="s">
-        <v>586</v>
-      </c>
-      <c r="J40" s="15" t="s">
-        <v>601</v>
-      </c>
+      <c r="J40" s="15"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I41" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="J41" s="15" t="s">
-        <v>602</v>
-      </c>
+      <c r="J41" s="15"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I42" s="14" t="s">
-        <v>588</v>
-      </c>
-      <c r="J42" s="15" t="s">
-        <v>603</v>
-      </c>
+      <c r="J42" s="15"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
@@ -9460,7 +9289,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>15</v>
@@ -9492,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>605</v>
+        <v>574</v>
       </c>
       <c r="D1" s="1"/>
     </row>
